--- a/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_21.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_21.xlsx
@@ -1289,7 +1289,7 @@
         <v>30000000</v>
       </c>
       <c r="E15" s="1">
-        <v>30000000</v>
+        <v>300000000</v>
       </c>
       <c r="F15" s="1">
         <v>35000000</v>
@@ -1325,7 +1325,7 @@
         <v>-50601311.959999993</v>
       </c>
       <c r="E16" s="1">
-        <v>-60413972.810000002</v>
+        <v>-60473972.810000002</v>
       </c>
       <c r="F16" s="1">
         <v>-53616441.74000001</v>
@@ -1399,7 +1399,8 @@
         <v>1447283759.3800049</v>
       </c>
       <c r="E18" s="1">
-        <v>1447134856</v>
+        <f>SUM(E12:E17)</f>
+        <v>1717134855.46</v>
       </c>
       <c r="F18" s="1">
         <f>SUM(F12:F17)</f>
@@ -1513,7 +1514,8 @@
         <v>1096925174.6300049</v>
       </c>
       <c r="E21" s="33">
-        <v>1062434856</v>
+        <f>SUM(E18:E20)</f>
+        <v>1332434855.46</v>
       </c>
       <c r="F21" s="33">
         <f>SUM(F18:F20)</f>
@@ -1592,7 +1594,7 @@
       </c>
       <c r="E23" s="33">
         <f>SUM(E21:E22)</f>
-        <v>1042419231</v>
+        <v>1312419230.46</v>
       </c>
       <c r="F23" s="33">
         <f>SUM(F21:F22)</f>
@@ -1640,7 +1642,7 @@
       </c>
       <c r="E25" s="5">
         <f>E23/E26</f>
-        <v>1.0233708165497497</v>
+        <v>12.083400226182029</v>
       </c>
       <c r="F25" s="5">
         <f>F23/F26</f>
@@ -1678,7 +1680,7 @@
         <v>1009991810.1331247</v>
       </c>
       <c r="E26" s="1">
-        <v>1018613404</v>
+        <v>108613404</v>
       </c>
       <c r="F26" s="1">
         <v>1026703455.3810816</v>
@@ -1731,11 +1733,11 @@
       </c>
       <c r="E28" s="16">
         <f>(E25-D25)/D25</f>
-        <v>-2.9235747302553738E-2</v>
+        <v>10.462250829236449</v>
       </c>
       <c r="F28" s="16">
         <f>(F25-E25)/E25</f>
-        <v>-3.0784812872715204E-2</v>
+        <v>-0.91791494787090511</v>
       </c>
       <c r="G28" s="16">
         <f>(G25-F25)/F25</f>
@@ -1763,7 +1765,7 @@
       </c>
       <c r="C29" s="5">
         <f>SUM(C25:G25)/5</f>
-        <v>1.0199816897109568</v>
+        <v>3.2319875716374127</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
